--- a/60Missions_2.xlsx
+++ b/60Missions_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10315,10 +10323,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E80"/>
+      <selection activeCell="A3" sqref="A3:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10362,16 +10370,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2.0804146221366548</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10379,16 +10387,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2.0804146221366548</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8.4804146221366548</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10402,10 +10410,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.4804146221366548</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>9.2304146221366548</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10413,101 +10421,101 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>9.2304146221366548</v>
+        <v>16.25</v>
       </c>
       <c r="E6">
-        <v>15.630414622136655</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>9.2304146221366548</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15.630414622136655</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>15.630414622136655</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>17.135613944485691</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1.9195853778633452</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="E11">
-        <v>12.480414622136655</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -10521,10 +10529,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.9195853778633456</v>
+        <v>9.5</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10532,16 +10540,16 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="E13">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10555,61 +10563,61 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E14">
-        <v>13.980414622136655</v>
+        <v>11.722222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>3.2316718711791279</v>
+        <v>11.722222222222221</v>
       </c>
       <c r="E15">
-        <v>5.5</v>
+        <v>12.722222222222221</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>12.722222222222221</v>
       </c>
       <c r="E16">
-        <v>6.4</v>
+        <v>12.965277777777777</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>6.4</v>
+        <v>12.965277777777777</v>
       </c>
       <c r="E17">
-        <v>6.8802343178074636</v>
+        <v>13.965277777777777</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -10623,10 +10631,10 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>6.8802343178074636</v>
+        <v>6.75</v>
       </c>
       <c r="E18">
-        <v>7.780234317807464</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -10640,10 +10648,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.780234317807464</v>
+        <v>7.75</v>
       </c>
       <c r="E19">
-        <v>8.155234317807464</v>
+        <v>7.854166666666667</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -10657,10 +10665,10 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>8.155234317807464</v>
+        <v>7.854166666666667</v>
       </c>
       <c r="E20">
-        <v>9.0552343178074644</v>
+        <v>8.8541666666666679</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -10668,16 +10676,16 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8.8541666666666679</v>
       </c>
       <c r="E21">
-        <v>10.9</v>
+        <v>8.9791666666666679</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -10685,38 +10693,38 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>10.9</v>
+        <v>8.9791666666666679</v>
       </c>
       <c r="E22">
-        <v>11.303887360535088</v>
+        <v>10.729166666666668</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23">
+      <c r="E23">
         <v>5</v>
-      </c>
-      <c r="D23">
-        <v>11.303887360535088</v>
-      </c>
-      <c r="E23">
-        <v>12.353887360535088</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10725,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.353887360535088</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>14.69142078275604</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10736,16 +10744,16 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>11.72754262966277</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10753,16 +10761,16 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="E26">
-        <v>14.9</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10770,16 +10778,16 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>15.440767078078675</v>
+        <v>8.75</v>
       </c>
       <c r="E27">
-        <v>15.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -10787,16 +10795,16 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>15.75</v>
+        <v>9.75</v>
       </c>
       <c r="E28">
-        <v>16.649999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10804,16 +10812,16 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>17.7</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -10821,16 +10829,16 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>18.899999999999999</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10838,21 +10846,21 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>18.899999999999999</v>
+        <v>13.75</v>
       </c>
       <c r="E31">
-        <v>20.828811162348455</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10861,32 +10869,32 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>14.494800677650963</v>
+        <v>14.75</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>14.930555555555555</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
       <c r="D33">
-        <v>16</v>
+        <v>14.930555555555555</v>
       </c>
       <c r="E33">
-        <v>22.4</v>
+        <v>15.930555555555555</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10895,49 +10903,49 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>22.4</v>
+        <v>15.930555555555555</v>
       </c>
       <c r="E34">
-        <v>22.4</v>
+        <v>16.138888888888889</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
       <c r="D35">
-        <v>22.4</v>
+        <v>16.138888888888889</v>
       </c>
       <c r="E35">
-        <v>28.799999999999997</v>
+        <v>17.138888888888889</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>25.75</v>
+        <v>15.930555555555555</v>
       </c>
       <c r="E36">
-        <v>28.75</v>
+        <v>17.680555555555557</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10946,83 +10954,83 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>28.75</v>
+        <v>17.680555555555557</v>
       </c>
       <c r="E37">
-        <v>30.255199322349036</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>14.25</v>
+        <v>18.25</v>
       </c>
       <c r="E38">
-        <v>16.500069443372805</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>16.500069443372805</v>
+        <v>19.25</v>
       </c>
       <c r="E39">
-        <v>17.100069443372806</v>
+        <v>19.430555555555557</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>17.100069443372806</v>
+        <v>19.430555555555557</v>
       </c>
       <c r="E40">
-        <v>17.370485789032607</v>
+        <v>21.180555555555557</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>17.370485789032607</v>
+        <v>13.25</v>
       </c>
       <c r="E41">
-        <v>18.420485789032607</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11031,32 +11039,32 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>18.420485789032607</v>
+        <v>14.25</v>
       </c>
       <c r="E42">
-        <v>18.844749857744535</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>18.844749857744535</v>
+        <v>15.75</v>
       </c>
       <c r="E43">
-        <v>19.444749857744537</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11065,32 +11073,32 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>19.444749857744537</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>19.612454956057022</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>19.612454956057022</v>
+        <v>19.5</v>
       </c>
       <c r="E45">
-        <v>20.212454956057023</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11099,112 +11107,112 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>20.212454956057023</v>
+        <v>20.5</v>
       </c>
       <c r="E46">
-        <v>22.462524399429828</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>15.25</v>
+        <v>25.75</v>
       </c>
       <c r="E47">
-        <v>16.755199322349036</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>16.755199322349036</v>
+        <v>26.75</v>
       </c>
       <c r="E48">
-        <v>17.655199322349034</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>17.655199322349034</v>
+        <v>20.5</v>
       </c>
       <c r="E49">
-        <v>18.401230487917871</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>18.401230487917871</v>
+        <v>28.5</v>
       </c>
       <c r="E50">
-        <v>19.30123048791787</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>19.503968834431163</v>
+        <v>30.25</v>
       </c>
       <c r="E51">
-        <v>20.25</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>20.25</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>21.15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -11212,21 +11220,21 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>21.15</v>
+        <v>15.25</v>
       </c>
       <c r="E53">
-        <v>22.655199322349034</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11235,32 +11243,32 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>24.994800677650964</v>
+        <v>16.25</v>
       </c>
       <c r="E54">
-        <v>26.5</v>
+        <v>16.402777777777779</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>26.5</v>
+        <v>16.402777777777779</v>
       </c>
       <c r="E55">
-        <v>27.4</v>
+        <v>17.652777777777779</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11269,146 +11277,146 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>27.4</v>
+        <v>17.652777777777779</v>
       </c>
       <c r="E56">
-        <v>28.905199322349034</v>
+        <v>17.826388888888889</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>23.727542629662771</v>
+        <v>17.826388888888889</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>18.826388888888889</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>18.826388888888889</v>
       </c>
       <c r="E58">
-        <v>26.9</v>
+        <v>19.034722222222221</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>29.688750963020603</v>
+        <v>19.034722222222221</v>
       </c>
       <c r="E59">
-        <v>30.5</v>
+        <v>20.034722222222221</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>30.5</v>
+        <v>20.034722222222221</v>
       </c>
       <c r="E60">
-        <v>31.4</v>
+        <v>20.076388888888889</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>34.181801948466052</v>
+        <v>20.076388888888889</v>
       </c>
       <c r="E61">
-        <v>34.5</v>
+        <v>21.076388888888889</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>34.5</v>
+        <v>21.076388888888889</v>
       </c>
       <c r="E62">
-        <v>35.4</v>
+        <v>21.291666666666668</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>35.4</v>
+        <v>21.291666666666668</v>
       </c>
       <c r="E63">
-        <v>35.70923292192132</v>
+        <v>22.291666666666668</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>35.70923292192132</v>
+        <v>18.25</v>
       </c>
       <c r="E64">
-        <v>36.309232921921321</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -11416,16 +11424,16 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>36.309232921921321</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>36.384232921921324</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -11433,16 +11441,16 @@
         <v>10</v>
       </c>
       <c r="B66">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>36.384232921921324</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>37.284232921921323</v>
+        <v>27.208333333333332</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -11450,21 +11458,21 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>37.284232921921323</v>
+        <v>27.208333333333332</v>
       </c>
       <c r="E67">
-        <v>39.786794109984463</v>
+        <v>28.208333333333332</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -11473,66 +11481,66 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>26.5</v>
+        <v>28.208333333333332</v>
       </c>
       <c r="E68">
-        <v>28.580414622136654</v>
+        <v>28.416666666666664</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>28.580414622136654</v>
+        <v>28.416666666666664</v>
       </c>
       <c r="E69">
-        <v>34.980414622136657</v>
+        <v>29.416666666666664</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>28.580414622136654</v>
+        <v>29.416666666666664</v>
       </c>
       <c r="E70">
-        <v>34.980414622136657</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>34.980414622136657</v>
+        <v>30.5</v>
       </c>
       <c r="E71">
-        <v>37.060829244273314</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -11541,83 +11549,83 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>30.419585377863346</v>
+        <v>31.5</v>
       </c>
       <c r="E72">
-        <v>32.5</v>
+        <v>31.708333333333332</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>32.5</v>
+        <v>31.708333333333332</v>
       </c>
       <c r="E73">
-        <v>33.4</v>
+        <v>32.708333333333329</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>33.4</v>
+        <v>32.25</v>
       </c>
       <c r="E74">
-        <v>34.412577157553933</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>34.412577157553933</v>
+        <v>32.708333333333329</v>
       </c>
       <c r="E75">
-        <v>35.012577157553935</v>
+        <v>33.708333333333329</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>35.012577157553935</v>
+        <v>33.25</v>
       </c>
       <c r="E76">
-        <v>37.388300731541449</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -11626,61 +11634,248 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>30.5</v>
+        <v>34.25</v>
       </c>
       <c r="E77">
-        <v>32.005199322349036</v>
+        <v>34.333333333333336</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>32.005199322349036</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="E78">
-        <v>38.405199322349034</v>
+        <v>35.333333333333336</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>32.005199322349036</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="E79">
-        <v>38.405199322349034</v>
+        <v>35.416666666666671</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>35.416666666666671</v>
+      </c>
+      <c r="E80">
+        <v>36.416666666666671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>36.416666666666671</v>
+      </c>
+      <c r="E81">
+        <v>36.50694444444445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>43</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>36.50694444444445</v>
+      </c>
+      <c r="E82">
+        <v>38.00694444444445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>26.5</v>
+      </c>
+      <c r="E83">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>28</v>
+      </c>
+      <c r="E84">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>32.5</v>
+      </c>
+      <c r="E85">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>13</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>38.405199322349034</v>
-      </c>
-      <c r="E80">
-        <v>39.91039864469807</v>
+      <c r="B86">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>30.75</v>
+      </c>
+      <c r="E86">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>31.75</v>
+      </c>
+      <c r="E87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>32</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>31.5</v>
+      </c>
+      <c r="E90">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>32.604166666666664</v>
+      </c>
+      <c r="E91">
+        <v>33.604166666666664</v>
       </c>
     </row>
   </sheetData>
